--- a/outputs-r202/g__UBA1777.xlsx
+++ b/outputs-r202/g__UBA1777.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE15"/>
+  <dimension ref="A1:AF15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,6 +590,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -689,6 +694,11 @@
           <t>s__UBA1777 sp900317375</t>
         </is>
       </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>s__UBA1777 sp900317375</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -788,6 +798,11 @@
           <t>s__UBA1777 sp900317375</t>
         </is>
       </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>s__UBA1777 sp900317375</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -887,6 +902,11 @@
           <t>s__UBA1777 sp900319275</t>
         </is>
       </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>s__UBA1777 sp900319275</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -986,6 +1006,11 @@
           <t>s__UBA1777 sp900319465</t>
         </is>
       </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>s__UBA1777 sp900319465</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1085,6 +1110,11 @@
           <t>s__UBA1777 sp900319635</t>
         </is>
       </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>s__UBA1777 sp900319635</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1184,6 +1214,11 @@
           <t>s__UBA1777 sp900317375</t>
         </is>
       </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>s__UBA1777 sp900317375</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1283,6 +1318,11 @@
           <t>s__UBA1777 sp900319695</t>
         </is>
       </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>s__UBA1777 sp900319695</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1382,6 +1422,11 @@
           <t>s__UBA1777 sp002450075</t>
         </is>
       </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>s__UBA1777 sp002450075(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1481,6 +1526,11 @@
           <t>s__UBA1777 sp900317375</t>
         </is>
       </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>s__UBA1777 sp900317375</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1580,6 +1630,11 @@
           <t>s__UBA1777 sp900320465</t>
         </is>
       </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>s__UBA1777 sp900320465</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1679,6 +1734,11 @@
           <t>s__UBA1777 sp900320595</t>
         </is>
       </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>s__UBA1777 sp900320595</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1778,6 +1838,11 @@
           <t>s__UBA1777 sp900317375</t>
         </is>
       </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>s__UBA1777 sp900317375</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1877,6 +1942,11 @@
           <t>s__UBA1777 sp900321275</t>
         </is>
       </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>s__UBA1777 sp900321275</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1972,6 +2042,11 @@
         <v>0.9979988245104027</v>
       </c>
       <c r="AE15" t="inlineStr">
+        <is>
+          <t>s__UBA1777 sp900317375</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
         <is>
           <t>s__UBA1777 sp900317375</t>
         </is>
